--- a/Устойчивое развитие природно-технических систем/lab1.xlsx
+++ b/Устойчивое развитие природно-технических систем/lab1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\1-term-of-SPBSTU\Устойчивое развитие природно-технических систем\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamet\Documents\GitHub\1-term-of-SPBSTU\Устойчивое развитие природно-технических систем\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,14 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
   <si>
     <t>Гурловка</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>Болот-ница</t>
   </si>
   <si>
@@ -45,12 +42,6 @@
   </si>
   <si>
     <t xml:space="preserve">Пло-щадь водосбо-ра, кв.км </t>
-  </si>
-  <si>
-    <t>Доля (%) площадей естественных экосистем</t>
-  </si>
-  <si>
-    <t>Доля (%) площадей антропогенно модифицированных экосистем</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -131,6 +122,51 @@
   </si>
   <si>
     <t>ВЭС</t>
+  </si>
+  <si>
+    <t>Ккрит</t>
+  </si>
+  <si>
+    <t>He | Доля (%) площадей естественных экосистем</t>
+  </si>
+  <si>
+    <t>Ha | Доля (%) площадей антропогенно модифицированных экосистем</t>
+  </si>
+  <si>
+    <t>Pi 1</t>
+  </si>
+  <si>
+    <t>Pi 2</t>
+  </si>
+  <si>
+    <t>Pi 3</t>
+  </si>
+  <si>
+    <t>He 1</t>
+  </si>
+  <si>
+    <t>He 2</t>
+  </si>
+  <si>
+    <t>He 3</t>
+  </si>
+  <si>
+    <t>Ha 1</t>
+  </si>
+  <si>
+    <t>Ha 2</t>
+  </si>
+  <si>
+    <t>Ha 3</t>
+  </si>
+  <si>
+    <t>Pi * ln Pi</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>k</t>
   </si>
 </sst>
 </file>
@@ -186,7 +222,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -223,19 +259,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thick">
         <color indexed="64"/>
       </left>
@@ -312,21 +335,114 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
       <bottom style="thick">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thick">
         <color indexed="64"/>
       </top>
@@ -335,179 +451,121 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
+      <right style="thick">
         <color indexed="64"/>
       </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
       <top/>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -788,311 +846,690 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y8"/>
+  <dimension ref="A1:AA17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X9" sqref="X9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Y2" sqref="Y2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="10" width="11.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="48.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:27" ht="48.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="C1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="D1" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+    </row>
+    <row r="2" spans="1:27" ht="78" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="15" t="s">
+      <c r="J2" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
+      <c r="K2" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="P2" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q2" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="R2" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="S2" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="T2" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="W2" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="X2" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y2" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA2" s="27" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="2" spans="1:25" ht="78" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="11" t="s">
+    <row r="3" spans="1:27" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10">
         <v>10</v>
       </c>
-      <c r="J2" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="O2" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="P2" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q2" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="R2" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="S2" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="T2" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="W2" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="X2" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y2" s="25" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="18">
-        <v>10</v>
-      </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="1">
         <v>31</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="23">
         <v>68.400000000000006</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="23">
         <v>4.0999999999999996</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="23">
         <v>1</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23">
+        <v>7.5</v>
+      </c>
+      <c r="J3" s="23">
+        <v>4.3</v>
+      </c>
+      <c r="K3" s="23">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23">
+        <v>2.8</v>
+      </c>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23">
+        <v>2.8</v>
+      </c>
+      <c r="Q3" s="23">
+        <v>2.8</v>
+      </c>
+      <c r="R3" s="23"/>
+      <c r="S3" s="23">
+        <v>1.2</v>
+      </c>
+      <c r="T3" s="24"/>
+      <c r="W3" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="X3" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y3" s="20">
+        <v>0.6</v>
+      </c>
+      <c r="AA3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="12">
+        <v>11</v>
+      </c>
+      <c r="B4" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3" s="1">
-        <v>7.5</v>
-      </c>
-      <c r="J3" s="1">
-        <v>4.3</v>
-      </c>
-      <c r="K3" s="1">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M3" s="1">
-        <v>2.8</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="P3" s="1">
-        <v>2.8</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>2.8</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="S3" s="1">
+      <c r="C4" s="2">
+        <v>64.5</v>
+      </c>
+      <c r="D4" s="2">
+        <v>44.5</v>
+      </c>
+      <c r="E4" s="2">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2">
+        <v>2.1</v>
+      </c>
+      <c r="J4" s="2">
+        <v>15</v>
+      </c>
+      <c r="K4" s="2">
+        <v>3</v>
+      </c>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2">
+        <v>20</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="S4" s="2">
+        <v>1.9</v>
+      </c>
+      <c r="T4" s="3"/>
+    </row>
+    <row r="5" spans="1:27" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="14">
+        <v>15</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4">
+        <v>45.5</v>
+      </c>
+      <c r="D5" s="4">
+        <v>61.4</v>
+      </c>
+      <c r="E5" s="4">
+        <v>6.1</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="G5" s="4">
+        <v>5.8</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4">
+        <v>9.1</v>
+      </c>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4">
+        <v>12</v>
+      </c>
+      <c r="L5" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4">
         <v>1.2</v>
       </c>
-      <c r="T3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="W3" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="X3" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y3" s="28">
-        <v>0.6</v>
-      </c>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="5"/>
     </row>
-    <row r="4" spans="1:25" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="20">
-        <v>11</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="3">
-        <v>64.5</v>
-      </c>
-      <c r="D4" s="3">
-        <v>44.5</v>
-      </c>
-      <c r="E4" s="3">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="F4" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I4" s="3">
-        <v>2.1</v>
-      </c>
-      <c r="J4" s="3">
-        <v>15</v>
-      </c>
-      <c r="K4" s="3">
-        <v>3</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="O4" s="3">
-        <v>20</v>
-      </c>
-      <c r="P4" s="3">
-        <v>1.6</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="R4" s="3">
-        <v>2.4</v>
-      </c>
-      <c r="S4" s="3">
-        <v>1.9</v>
-      </c>
-      <c r="T4" s="4" t="s">
-        <v>1</v>
-      </c>
+    <row r="6" spans="1:27" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="28"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="28"/>
+      <c r="S6" s="28"/>
+      <c r="T6" s="28"/>
     </row>
-    <row r="5" spans="1:25" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="22">
-        <v>15</v>
-      </c>
-      <c r="B5" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="5">
-        <v>45.5</v>
-      </c>
-      <c r="D5" s="5">
-        <v>61.4</v>
-      </c>
-      <c r="E5" s="5">
-        <v>6.1</v>
-      </c>
-      <c r="F5" s="5">
-        <v>0.7</v>
-      </c>
-      <c r="G5" s="5">
-        <v>5.8</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I5" s="5">
-        <v>9.1</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="K5" s="5">
-        <v>12</v>
-      </c>
-      <c r="L5" s="5">
+    <row r="7" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="29">
+        <f>D3/100</f>
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="C7" s="29">
+        <f>E3/100</f>
+        <v>4.0999999999999995E-2</v>
+      </c>
+      <c r="D7" s="29">
+        <f>F3/100</f>
+        <v>0.01</v>
+      </c>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29">
+        <f>I3/100</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="H7" s="29">
+        <f>J3/100</f>
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="I7" s="30">
+        <f>K3/100</f>
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29">
+        <f>M3/100</f>
+        <v>2.7999999999999997E-2</v>
+      </c>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29">
+        <f>P3/100</f>
+        <v>2.7999999999999997E-2</v>
+      </c>
+      <c r="O7" s="29">
+        <f>Q3/100</f>
+        <v>2.7999999999999997E-2</v>
+      </c>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29">
+        <f>S3/100</f>
+        <v>1.2E-2</v>
+      </c>
+      <c r="R7" s="28"/>
+      <c r="S7" s="28"/>
+      <c r="T7" s="28"/>
+    </row>
+    <row r="8" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="29">
+        <f t="shared" ref="B8:B9" si="0">D4/100</f>
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="C8" s="29">
+        <f>E4/100</f>
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="D8" s="29">
+        <f>F4/100</f>
+        <v>6.9999999999999993E-3</v>
+      </c>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29">
+        <f>I4/100</f>
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="H8" s="29">
+        <f>J4/100</f>
+        <v>0.15</v>
+      </c>
+      <c r="I8" s="30">
+        <f>K4/100</f>
+        <v>0.03</v>
+      </c>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29">
+        <f>O4/100</f>
         <v>0.2</v>
       </c>
-      <c r="M5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="N5" s="5">
-        <v>1.2</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="P5" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="Q5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="R5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="S5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="T5" s="6" t="s">
-        <v>1</v>
-      </c>
+      <c r="N8" s="29">
+        <f>P4/100</f>
+        <v>1.6E-2</v>
+      </c>
+      <c r="O8" s="29"/>
+      <c r="P8" s="29">
+        <f>R4/100</f>
+        <v>2.4E-2</v>
+      </c>
+      <c r="Q8" s="29">
+        <f>S4/100</f>
+        <v>1.9E-2</v>
+      </c>
+      <c r="R8" s="28"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="28"/>
     </row>
-    <row r="6" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="Q8" s="8"/>
+    <row r="9" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="29">
+        <f t="shared" si="0"/>
+        <v>0.61399999999999999</v>
+      </c>
+      <c r="C9" s="29">
+        <f>E5/100</f>
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="D9" s="29">
+        <f>F5/100</f>
+        <v>6.9999999999999993E-3</v>
+      </c>
+      <c r="E9" s="29">
+        <f>G5/100</f>
+        <v>5.7999999999999996E-2</v>
+      </c>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29">
+        <f>I5/100</f>
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="H9" s="29"/>
+      <c r="I9" s="30">
+        <f>K5/100</f>
+        <v>0.12</v>
+      </c>
+      <c r="J9" s="29">
+        <f>L5/100</f>
+        <v>2E-3</v>
+      </c>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29">
+        <f>N5/100</f>
+        <v>1.2E-2</v>
+      </c>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29">
+        <f>P5/100</f>
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29"/>
+    </row>
+    <row r="10" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="28"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="29"/>
+    </row>
+    <row r="11" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11">
+        <f>-SUM(B15:H15)</f>
+        <v>0.76636651816307477</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11">
+        <f>-SUM(I15:Q15)</f>
+        <v>0.50519286008926045</v>
+      </c>
+      <c r="G11" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11">
+        <f>B11+E11</f>
+        <v>1.2715593782523351</v>
+      </c>
+      <c r="J11" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="K11">
+        <f>E11/B11</f>
+        <v>0.6592052863950415</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12">
+        <f t="shared" ref="B12:B13" si="1">-SUM(B16:H16)</f>
+        <v>0.98837005132241051</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ref="E12:E13" si="2">-SUM(I16:Q16)</f>
+        <v>0.65806282877801614</v>
+      </c>
+      <c r="G12" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12">
+        <f t="shared" ref="H12:H13" si="3">B12+E12</f>
+        <v>1.6464328801004267</v>
+      </c>
+      <c r="J12" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="K12">
+        <f t="shared" ref="K12:K13" si="4">E12/B12</f>
+        <v>0.66580611978028581</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="1"/>
+        <v>0.88808916448912556</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="2"/>
+        <v>0.4372692767034303</v>
+      </c>
+      <c r="G13" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="3"/>
+        <v>1.3253584411925559</v>
+      </c>
+      <c r="J13" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="4"/>
+        <v>0.49237091745733663</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15">
+        <f>B7*LN(B7)</f>
+        <v>-0.25978139516995719</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ref="C15:Q15" si="5">C7*LN(C7)</f>
+        <v>-0.13096151170339099</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="5"/>
+        <v>-4.605170185988091E-2</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="5"/>
+        <v>-0.19427003740843699</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="5"/>
+        <v>-0.1353018720214087</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="5"/>
+        <v>-0.15177241195914837</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="5"/>
+        <v>-0.10011542152659411</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="5"/>
+        <v>-0.10011542152659411</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="5"/>
+        <v>-0.10011542152659411</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="5"/>
+        <v>-5.3074183550329647E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16">
+        <f t="shared" ref="B16:Q17" si="6">B8*LN(B8)</f>
+        <v>-0.36030804358307406</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="6"/>
+        <v>-0.22763320443053336</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="6"/>
+        <v>-3.4732915909487766E-2</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="6"/>
+        <v>-8.1127889666433001E-2</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="6"/>
+        <v>-0.28456799773288216</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="6"/>
+        <v>-0.10519673691959945</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="6"/>
+        <v>-0.32188758248682009</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="6"/>
+        <v>-6.61626649078777E-2</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="6"/>
+        <v>-8.9512834767220592E-2</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="6"/>
+        <v>-7.5303009696498238E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="6"/>
+        <v>-0.29948485541268666</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="6"/>
+        <v>-0.17060976630333838</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="6"/>
+        <v>-3.4732915909487766E-2</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="6"/>
+        <v>-0.16514411156927161</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="6"/>
+        <v>-0.21811751529434112</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="6"/>
+        <v>-0.2544316243440109</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="6"/>
+        <v>-1.2429216196844383E-2</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="6"/>
+        <v>-5.3074183550329647E-2</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="6"/>
+        <v>-0.11733425261224532</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1100,6 +1537,6 @@
     <mergeCell ref="K1:T1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>